--- a/17-10-1/Example_Input/17-10-1_SDG_database.xlsx
+++ b/17-10-1/Example_Input/17-10-1_SDG_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding_repos\sdg_data_updates\17-10-1\Example_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C192AF-C7FD-4B80-9B91-9C78D21F86E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985D856-B50D-4B0D-9B14-C3756044A56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5208" yWindow="864" windowWidth="15828" windowHeight="10572" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeDescriptions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="68">
   <si>
     <t>Dimension</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>1.9729</t>
-  </si>
-  <si>
-    <t>2021</t>
   </si>
   <si>
     <t/>
@@ -779,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,29 +906,29 @@
       <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
-        <v>52</v>
+      <c r="J2">
+        <v>2021</v>
       </c>
       <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
         <v>4</v>
@@ -972,31 +969,31 @@
         <v>2021</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="J3">
+        <v>2021</v>
       </c>
       <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
         <v>4</v>
@@ -1037,31 +1034,31 @@
         <v>2021</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="J4">
+        <v>2021</v>
       </c>
       <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
         <v>4</v>
@@ -1102,31 +1099,31 @@
         <v>2021</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>2021</v>
       </c>
       <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
         <v>4</v>
@@ -1167,31 +1164,31 @@
         <v>2021</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>2021</v>
       </c>
       <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
         <v>4</v>
@@ -1232,31 +1229,31 @@
         <v>2021</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <v>2021</v>
       </c>
       <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R7" t="s">
         <v>4</v>
@@ -1297,31 +1294,31 @@
         <v>2021</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <v>2021</v>
       </c>
       <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R8" t="s">
         <v>4</v>
@@ -1347,10 +1344,10 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
       <c r="F9">
         <v>826</v>
@@ -1362,31 +1359,31 @@
         <v>2021</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="J9">
+        <v>2021</v>
       </c>
       <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="L9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" t="s">
-        <v>54</v>
-      </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
         <v>4</v>
@@ -1412,10 +1409,10 @@
         <v>47</v>
       </c>
       <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
       </c>
       <c r="F10">
         <v>826</v>
@@ -1427,31 +1424,31 @@
         <v>2021</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="J10">
+        <v>2021</v>
       </c>
       <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" t="s">
-        <v>54</v>
-      </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s">
         <v>4</v>
@@ -1477,10 +1474,10 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
       </c>
       <c r="F11">
         <v>826</v>
@@ -1492,31 +1489,31 @@
         <v>2021</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="J11">
+        <v>2021</v>
       </c>
       <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
         <v>53</v>
       </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" t="s">
-        <v>54</v>
-      </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R11" t="s">
         <v>4</v>
@@ -1542,10 +1539,10 @@
         <v>47</v>
       </c>
       <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
       </c>
       <c r="F12">
         <v>826</v>
@@ -1557,31 +1554,31 @@
         <v>2021</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="J12">
+        <v>2021</v>
       </c>
       <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
         <v>53</v>
       </c>
-      <c r="L12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" t="s">
-        <v>54</v>
-      </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R12" t="s">
         <v>4</v>
@@ -1607,10 +1604,10 @@
         <v>47</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
       </c>
       <c r="F13">
         <v>826</v>
@@ -1622,31 +1619,31 @@
         <v>2021</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <v>2021</v>
       </c>
       <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" t="s">
-        <v>54</v>
-      </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R13" t="s">
         <v>4</v>
@@ -1672,10 +1669,10 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
       </c>
       <c r="F14">
         <v>826</v>
@@ -1687,31 +1684,31 @@
         <v>2021</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="J14">
+        <v>2021</v>
       </c>
       <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" t="s">
-        <v>54</v>
-      </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R14" t="s">
         <v>4</v>
@@ -1737,10 +1734,10 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
         <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
       </c>
       <c r="F15">
         <v>826</v>
@@ -1752,31 +1749,31 @@
         <v>2021</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="J15">
+        <v>2021</v>
       </c>
       <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="L15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
         <v>4</v>
@@ -1814,7 +1811,7 @@
         <v>50</v>
       </c>
       <c r="H16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I16" t="s">
         <v>51</v>
@@ -1823,25 +1820,25 @@
         <v>2022</v>
       </c>
       <c r="K16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="L16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R16" t="s">
         <v>4</v>
@@ -1879,34 +1876,34 @@
         <v>50</v>
       </c>
       <c r="H17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>2022</v>
       </c>
       <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="L17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R17" t="s">
         <v>4</v>
@@ -1944,34 +1941,34 @@
         <v>50</v>
       </c>
       <c r="H18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>2022</v>
       </c>
       <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="L18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" t="s">
-        <v>54</v>
-      </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R18" t="s">
         <v>4</v>
@@ -2009,34 +2006,34 @@
         <v>50</v>
       </c>
       <c r="H19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>2022</v>
       </c>
       <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
         <v>53</v>
       </c>
-      <c r="L19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" t="s">
-        <v>54</v>
-      </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
         <v>4</v>
@@ -2074,34 +2071,34 @@
         <v>50</v>
       </c>
       <c r="H20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>2022</v>
       </c>
       <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="L20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" t="s">
-        <v>54</v>
-      </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R20" t="s">
         <v>4</v>
@@ -2139,34 +2136,34 @@
         <v>50</v>
       </c>
       <c r="H21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>2022</v>
       </c>
       <c r="K21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="L21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" t="s">
-        <v>54</v>
-      </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R21" t="s">
         <v>4</v>
@@ -2204,34 +2201,34 @@
         <v>50</v>
       </c>
       <c r="H22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22">
         <v>2022</v>
       </c>
       <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="L22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" t="s">
-        <v>54</v>
-      </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R22" t="s">
         <v>4</v>
@@ -2257,10 +2254,10 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
         <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
       </c>
       <c r="F23">
         <v>826</v>
@@ -2269,34 +2266,34 @@
         <v>50</v>
       </c>
       <c r="H23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23">
         <v>2022</v>
       </c>
       <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" t="s">
         <v>53</v>
       </c>
-      <c r="L23" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" t="s">
-        <v>54</v>
-      </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R23" t="s">
         <v>4</v>
@@ -2322,10 +2319,10 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
       </c>
       <c r="F24">
         <v>826</v>
@@ -2334,34 +2331,34 @@
         <v>50</v>
       </c>
       <c r="H24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24">
         <v>2022</v>
       </c>
       <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="L24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O24" t="s">
-        <v>54</v>
-      </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R24" t="s">
         <v>4</v>
@@ -2387,10 +2384,10 @@
         <v>47</v>
       </c>
       <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
         <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
       </c>
       <c r="F25">
         <v>826</v>
@@ -2399,34 +2396,34 @@
         <v>50</v>
       </c>
       <c r="H25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J25">
         <v>2022</v>
       </c>
       <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="L25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" t="s">
-        <v>54</v>
-      </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R25" t="s">
         <v>4</v>
@@ -2452,10 +2449,10 @@
         <v>47</v>
       </c>
       <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
       </c>
       <c r="F26">
         <v>826</v>
@@ -2464,34 +2461,34 @@
         <v>50</v>
       </c>
       <c r="H26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26">
         <v>2022</v>
       </c>
       <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="L26" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" t="s">
-        <v>53</v>
-      </c>
-      <c r="N26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O26" t="s">
-        <v>54</v>
-      </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R26" t="s">
         <v>4</v>
@@ -2517,10 +2514,10 @@
         <v>47</v>
       </c>
       <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
         <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
       </c>
       <c r="F27">
         <v>826</v>
@@ -2529,34 +2526,34 @@
         <v>50</v>
       </c>
       <c r="H27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27">
         <v>2022</v>
       </c>
       <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="L27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" t="s">
-        <v>54</v>
-      </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R27" t="s">
         <v>4</v>
@@ -2582,10 +2579,10 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
         <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
       </c>
       <c r="F28">
         <v>826</v>
@@ -2594,34 +2591,34 @@
         <v>50</v>
       </c>
       <c r="H28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28">
         <v>2022</v>
       </c>
       <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
-      </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R28" t="s">
         <v>4</v>
@@ -2647,10 +2644,10 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
         <v>61</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
       </c>
       <c r="F29">
         <v>826</v>
@@ -2659,34 +2656,34 @@
         <v>50</v>
       </c>
       <c r="H29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29">
         <v>2022</v>
       </c>
       <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="L29" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" t="s">
-        <v>54</v>
-      </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R29" t="s">
         <v>4</v>
